--- a/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
+++ b/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF562328-46B4-3F44-AF61-2166509E50E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32668FAF-8657-044B-8289-6C689EF0CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13120" yWindow="2980" windowWidth="38000" windowHeight="24580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
   <si>
     <t>Table A-104:  Total U.S. Greenhouse Gas Emissions from Transportation and Mobile Sources (MMT CO2 Eq.)</t>
   </si>
@@ -855,1071 +855,833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="13" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="15"/>
-    <col min="8" max="8" width="8.83203125" style="13"/>
-    <col min="12" max="15" width="8.83203125" style="13"/>
+    <col min="2" max="2" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.83203125" style="15"/>
+    <col min="7" max="11" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="18" customFormat="1" ht="14">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="14">
       <c r="A1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
+      <c r="B1" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="G1" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="H1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>90</v>
       </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="12">
         <f>transposed!A2</f>
         <v>1990</v>
       </c>
-      <c r="B2" s="12">
-        <f>transposed!C2</f>
-        <v>1206.8</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="14">
         <f>transposed!D2</f>
         <v>639.6</v>
       </c>
-      <c r="D2" s="14">
+      <c r="C2" s="14">
         <f>transposed!I2</f>
         <v>326.7</v>
       </c>
-      <c r="E2" s="14">
+      <c r="D2" s="14">
         <f>transposed!N2</f>
         <v>230.3</v>
       </c>
-      <c r="F2" s="14">
+      <c r="E2" s="14">
         <f>transposed!U2</f>
         <v>8.5</v>
       </c>
-      <c r="G2" s="14">
+      <c r="F2" s="14">
         <f>transposed!AA2</f>
         <v>1.7</v>
       </c>
-      <c r="H2" s="12">
+      <c r="G2" s="12">
         <f>transposed!AC2</f>
         <v>189.2</v>
       </c>
-      <c r="I2" s="14">
-        <f>transposed!AD2</f>
-        <v>42.9</v>
-      </c>
-      <c r="J2" s="14">
-        <f>transposed!AG2</f>
-        <v>110.9</v>
-      </c>
-      <c r="K2" s="14">
-        <f>transposed!AI2</f>
-        <v>35.299999999999997</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="H2" s="12">
         <f>transposed!AK2</f>
         <v>47</v>
       </c>
-      <c r="M2" s="12">
+      <c r="I2" s="12">
         <f>transposed!AQ2</f>
         <v>39</v>
       </c>
-      <c r="N2" s="12">
+      <c r="J2" s="12">
         <f>transposed!AY2</f>
         <v>36</v>
       </c>
-      <c r="O2" s="12">
+      <c r="K2" s="12">
         <f>transposed!BA2</f>
         <v>11.8</v>
       </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="12">
         <f>transposed!A3</f>
         <v>1995</v>
       </c>
-      <c r="B3" s="12">
-        <f>transposed!C3</f>
-        <v>1342</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="14">
         <f>transposed!D3</f>
         <v>629.9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="C3" s="14">
         <f>transposed!I3</f>
         <v>425.2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="D3" s="14">
         <f>transposed!N3</f>
         <v>275.89999999999998</v>
       </c>
-      <c r="F3" s="14">
+      <c r="E3" s="14">
         <f>transposed!U3</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="G3" s="14">
+      <c r="F3" s="14">
         <f>transposed!AA3</f>
         <v>1.8</v>
       </c>
-      <c r="H3" s="12">
+      <c r="G3" s="12">
         <f>transposed!AC3</f>
         <v>176.7</v>
       </c>
-      <c r="I3" s="14">
-        <f>transposed!AD3</f>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="J3" s="14">
-        <f>transposed!AG3</f>
-        <v>116.3</v>
-      </c>
-      <c r="K3" s="14">
-        <f>transposed!AI3</f>
-        <v>24.5</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="H3" s="12">
         <f>transposed!AK3</f>
         <v>58.8</v>
       </c>
-      <c r="M3" s="12">
+      <c r="I3" s="12">
         <f>transposed!AQ3</f>
         <v>43.1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="J3" s="12">
         <f>transposed!AY3</f>
         <v>38.4</v>
       </c>
-      <c r="O3" s="12">
+      <c r="K3" s="12">
         <f>transposed!BA3</f>
         <v>11.3</v>
       </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="11"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="12">
         <f>transposed!A4</f>
         <v>2000</v>
       </c>
-      <c r="B4" s="12">
-        <f>transposed!C4</f>
-        <v>1557.8</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="14">
         <f>transposed!D4</f>
         <v>685.8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="C4" s="14">
         <f>transposed!I4</f>
         <v>506.7</v>
       </c>
-      <c r="E4" s="14">
+      <c r="D4" s="14">
         <f>transposed!N4</f>
         <v>352.3</v>
       </c>
-      <c r="F4" s="14">
+      <c r="E4" s="14">
         <f>transposed!U4</f>
         <v>11.1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="F4" s="14">
         <f>transposed!AA4</f>
         <v>1.9</v>
       </c>
-      <c r="H4" s="12">
+      <c r="G4" s="12">
         <f>transposed!AC4</f>
         <v>199.4</v>
       </c>
-      <c r="I4" s="14">
-        <f>transposed!AD4</f>
-        <v>35.9</v>
-      </c>
-      <c r="J4" s="14">
-        <f>transposed!AG4</f>
-        <v>140.6</v>
-      </c>
-      <c r="K4" s="14">
-        <f>transposed!AI4</f>
-        <v>22.9</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="H4" s="12">
         <f>transposed!AK4</f>
         <v>65.8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="I4" s="12">
         <f>transposed!AQ4</f>
         <v>46.6</v>
       </c>
-      <c r="N4" s="12">
+      <c r="J4" s="12">
         <f>transposed!AY4</f>
         <v>35.5</v>
       </c>
-      <c r="O4" s="12">
+      <c r="K4" s="12">
         <f>transposed!BA4</f>
         <v>12.1</v>
       </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="12">
         <f>transposed!A5</f>
         <v>2009</v>
       </c>
-      <c r="B5" s="12">
-        <f>transposed!C5</f>
-        <v>1517.5</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="14">
         <f>transposed!D5</f>
         <v>774</v>
       </c>
-      <c r="D5" s="14">
+      <c r="C5" s="14">
         <f>transposed!I5</f>
         <v>343.5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="D5" s="14">
         <f>transposed!N5</f>
         <v>379.7</v>
       </c>
-      <c r="F5" s="14">
+      <c r="E5" s="14">
         <f>transposed!U5</f>
         <v>16.2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="F5" s="14">
         <f>transposed!AA5</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="12">
+      <c r="G5" s="12">
         <f>transposed!AC5</f>
         <v>157.4</v>
       </c>
-      <c r="I5" s="14">
-        <f>transposed!AD5</f>
-        <v>21.2</v>
-      </c>
-      <c r="J5" s="14">
-        <f>transposed!AG5</f>
-        <v>120.6</v>
-      </c>
-      <c r="K5" s="14">
-        <f>transposed!AI5</f>
-        <v>15.5</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="H5" s="12">
         <f>transposed!AK5</f>
         <v>39.1</v>
       </c>
-      <c r="M5" s="12">
+      <c r="I5" s="12">
         <f>transposed!AQ5</f>
         <v>41.1</v>
       </c>
-      <c r="N5" s="12">
+      <c r="J5" s="12">
         <f>transposed!AY5</f>
         <v>37.1</v>
       </c>
-      <c r="O5" s="12">
+      <c r="K5" s="12">
         <f>transposed!BA5</f>
         <v>8.5</v>
       </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="12">
         <f>transposed!A6</f>
         <v>2010</v>
       </c>
-      <c r="B6" s="12">
-        <f>transposed!C6</f>
-        <v>1515.2</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="14">
         <f>transposed!D6</f>
         <v>762.7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="C6" s="14">
         <f>transposed!I6</f>
         <v>339.6</v>
       </c>
-      <c r="E6" s="14">
+      <c r="D6" s="14">
         <f>transposed!N6</f>
         <v>393.3</v>
       </c>
-      <c r="F6" s="14">
+      <c r="E6" s="14">
         <f>transposed!U6</f>
         <v>16</v>
       </c>
-      <c r="G6" s="14">
+      <c r="F6" s="14">
         <f>transposed!AA6</f>
         <v>3.6</v>
       </c>
-      <c r="H6" s="12">
+      <c r="G6" s="12">
         <f>transposed!AC6</f>
         <v>154.80000000000001</v>
       </c>
-      <c r="I6" s="14">
-        <f>transposed!AD6</f>
-        <v>26.7</v>
-      </c>
-      <c r="J6" s="14">
-        <f>transposed!AG6</f>
-        <v>114.4</v>
-      </c>
-      <c r="K6" s="14">
-        <f>transposed!AI6</f>
-        <v>13.7</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="H6" s="12">
         <f>transposed!AK6</f>
         <v>44.9</v>
       </c>
-      <c r="M6" s="12">
+      <c r="I6" s="12">
         <f>transposed!AQ6</f>
         <v>44</v>
       </c>
-      <c r="N6" s="12">
+      <c r="J6" s="12">
         <f>transposed!AY6</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="O6" s="12">
+      <c r="K6" s="12">
         <f>transposed!BA6</f>
         <v>10.4</v>
       </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="12">
         <f>transposed!A7</f>
         <v>2011</v>
       </c>
-      <c r="B7" s="12">
-        <f>transposed!C7</f>
-        <v>1483.9</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="14">
         <f>transposed!D7</f>
         <v>753.3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="C7" s="14">
         <f>transposed!I7</f>
         <v>322.60000000000002</v>
       </c>
-      <c r="E7" s="14">
+      <c r="D7" s="14">
         <f>transposed!N7</f>
         <v>387.8</v>
       </c>
-      <c r="F7" s="14">
+      <c r="E7" s="14">
         <f>transposed!U7</f>
         <v>16.7</v>
       </c>
-      <c r="G7" s="14">
+      <c r="F7" s="14">
         <f>transposed!AA7</f>
         <v>3.5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="G7" s="12">
         <f>transposed!AC7</f>
         <v>149.9</v>
       </c>
-      <c r="I7" s="14">
-        <f>transposed!AD7</f>
-        <v>22.5</v>
-      </c>
-      <c r="J7" s="14">
-        <f>transposed!AG7</f>
-        <v>115.7</v>
-      </c>
-      <c r="K7" s="14">
-        <f>transposed!AI7</f>
-        <v>11.7</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="H7" s="12">
         <f>transposed!AK7</f>
         <v>46.4</v>
       </c>
-      <c r="M7" s="12">
+      <c r="I7" s="12">
         <f>transposed!AQ7</f>
         <v>45.2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="J7" s="12">
         <f>transposed!AY7</f>
         <v>38.1</v>
       </c>
-      <c r="O7" s="12">
+      <c r="K7" s="12">
         <f>transposed!BA7</f>
         <v>10</v>
       </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="12">
         <f>transposed!A8</f>
         <v>2012</v>
       </c>
-      <c r="B8" s="12">
-        <f>transposed!C8</f>
-        <v>1473.1</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="14">
         <f>transposed!D8</f>
         <v>746.2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="C8" s="14">
         <f>transposed!I8</f>
         <v>316.10000000000002</v>
       </c>
-      <c r="E8" s="14">
+      <c r="D8" s="14">
         <f>transposed!N8</f>
         <v>389</v>
       </c>
-      <c r="F8" s="14">
+      <c r="E8" s="14">
         <f>transposed!U8</f>
         <v>17.8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="F8" s="14">
         <f>transposed!AA8</f>
         <v>4</v>
       </c>
-      <c r="H8" s="12">
+      <c r="G8" s="12">
         <f>transposed!AC8</f>
         <v>146.5</v>
       </c>
-      <c r="I8" s="14">
-        <f>transposed!AD8</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="J8" s="14">
-        <f>transposed!AG8</f>
-        <v>114.3</v>
-      </c>
-      <c r="K8" s="14">
-        <f>transposed!AI8</f>
-        <v>12.2</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="H8" s="12">
         <f>transposed!AK8</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="M8" s="12">
+      <c r="I8" s="12">
         <f>transposed!AQ8</f>
         <v>43.9</v>
       </c>
-      <c r="N8" s="12">
+      <c r="J8" s="12">
         <f>transposed!AY8</f>
         <v>40.6</v>
       </c>
-      <c r="O8" s="12">
+      <c r="K8" s="12">
         <f>transposed!BA8</f>
         <v>9.1</v>
       </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="12">
         <f>transposed!A9</f>
         <v>2013</v>
       </c>
-      <c r="B9" s="12">
-        <f>transposed!C9</f>
-        <v>1466.2</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="14">
         <f>transposed!D9</f>
         <v>739.2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="C9" s="14">
         <f>transposed!I9</f>
         <v>312.10000000000002</v>
       </c>
-      <c r="E9" s="14">
+      <c r="D9" s="14">
         <f>transposed!N9</f>
         <v>393.3</v>
       </c>
-      <c r="F9" s="14">
+      <c r="E9" s="14">
         <f>transposed!U9</f>
         <v>17.8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="F9" s="14">
         <f>transposed!AA9</f>
         <v>3.8</v>
       </c>
-      <c r="H9" s="12">
+      <c r="G9" s="12">
         <f>transposed!AC9</f>
         <v>150.1</v>
       </c>
-      <c r="I9" s="14">
-        <f>transposed!AD9</f>
-        <v>23.6</v>
-      </c>
-      <c r="J9" s="14">
-        <f>transposed!AG9</f>
-        <v>115.4</v>
-      </c>
-      <c r="K9" s="14">
-        <f>transposed!AI9</f>
-        <v>11.1</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="H9" s="12">
         <f>transposed!AK9</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="M9" s="12">
+      <c r="I9" s="12">
         <f>transposed!AQ9</f>
         <v>44.5</v>
       </c>
-      <c r="N9" s="12">
+      <c r="J9" s="12">
         <f>transposed!AY9</f>
         <v>46.2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="K9" s="12">
         <f>transposed!BA9</f>
         <v>9.6</v>
       </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="12">
         <f>transposed!A10</f>
         <v>2014</v>
       </c>
-      <c r="B10" s="12">
-        <f>transposed!C10</f>
-        <v>1514.3</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="14">
         <f>transposed!D10</f>
         <v>753</v>
       </c>
-      <c r="D10" s="14">
+      <c r="C10" s="14">
         <f>transposed!I10</f>
         <v>331.9</v>
       </c>
-      <c r="E10" s="14">
+      <c r="D10" s="14">
         <f>transposed!N10</f>
         <v>406.4</v>
       </c>
-      <c r="F10" s="14">
+      <c r="E10" s="14">
         <f>transposed!U10</f>
         <v>19.2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="F10" s="14">
         <f>transposed!AA10</f>
         <v>3.8</v>
       </c>
-      <c r="H10" s="12">
+      <c r="G10" s="12">
         <f>transposed!AC10</f>
         <v>151.30000000000001</v>
       </c>
-      <c r="I10" s="14">
-        <f>transposed!AD10</f>
-        <v>20.9</v>
-      </c>
-      <c r="J10" s="14">
-        <f>transposed!AG10</f>
-        <v>116.3</v>
-      </c>
-      <c r="K10" s="14">
-        <f>transposed!AI10</f>
-        <v>14.1</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="H10" s="12">
         <f>transposed!AK10</f>
         <v>29.1</v>
       </c>
-      <c r="M10" s="12">
+      <c r="I10" s="12">
         <f>transposed!AQ10</f>
         <v>46.4</v>
       </c>
-      <c r="N10" s="12">
+      <c r="J10" s="12">
         <f>transposed!AY10</f>
         <v>39.4</v>
       </c>
-      <c r="O10" s="12">
+      <c r="K10" s="12">
         <f>transposed!BA10</f>
         <v>10</v>
       </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="11"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="12">
         <f>transposed!A11</f>
         <v>2015</v>
       </c>
-      <c r="B11" s="12">
-        <f>transposed!C11</f>
-        <v>1510.5</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="14">
         <f>transposed!D11</f>
         <v>752.5</v>
       </c>
-      <c r="D11" s="14">
+      <c r="C11" s="14">
         <f>transposed!I11</f>
         <v>320.89999999999998</v>
       </c>
-      <c r="E11" s="14">
+      <c r="D11" s="14">
         <f>transposed!N11</f>
         <v>413.9</v>
       </c>
-      <c r="F11" s="14">
+      <c r="E11" s="14">
         <f>transposed!U11</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="G11" s="14">
+      <c r="F11" s="14">
         <f>transposed!AA11</f>
         <v>3.7</v>
       </c>
-      <c r="H11" s="12">
+      <c r="G11" s="12">
         <f>transposed!AC11</f>
         <v>160.5</v>
       </c>
-      <c r="I11" s="14">
-        <f>transposed!AD11</f>
-        <v>26.8</v>
-      </c>
-      <c r="J11" s="14">
-        <f>transposed!AG11</f>
-        <v>120.1</v>
-      </c>
-      <c r="K11" s="14">
-        <f>transposed!AI11</f>
-        <v>13.6</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="H11" s="12">
         <f>transposed!AK11</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="M11" s="12">
+      <c r="I11" s="12">
         <f>transposed!AQ11</f>
         <v>44.1</v>
       </c>
-      <c r="N11" s="12">
+      <c r="J11" s="12">
         <f>transposed!AY11</f>
         <v>38.5</v>
       </c>
-      <c r="O11" s="12">
+      <c r="K11" s="12">
         <f>transposed!BA11</f>
         <v>11</v>
       </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="12">
         <f>transposed!A12</f>
         <v>2016</v>
       </c>
-      <c r="B12" s="12">
-        <f>transposed!C12</f>
-        <v>1534.6</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="14">
         <f>transposed!D12</f>
         <v>763.5</v>
       </c>
-      <c r="D12" s="14">
+      <c r="C12" s="14">
         <f>transposed!I12</f>
         <v>330.2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="D12" s="14">
         <f>transposed!N12</f>
         <v>417.9</v>
       </c>
-      <c r="F12" s="14">
+      <c r="E12" s="14">
         <f>transposed!U12</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="G12" s="14">
+      <c r="F12" s="14">
         <f>transposed!AA12</f>
         <v>3.9</v>
       </c>
-      <c r="H12" s="12">
+      <c r="G12" s="12">
         <f>transposed!AC12</f>
         <v>169</v>
       </c>
-      <c r="I12" s="14">
-        <f>transposed!AD12</f>
-        <v>35.1</v>
-      </c>
-      <c r="J12" s="14">
-        <f>transposed!AG12</f>
-        <v>121.5</v>
-      </c>
-      <c r="K12" s="14">
-        <f>transposed!AI12</f>
-        <v>12.4</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="H12" s="12">
         <f>transposed!AK12</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="M12" s="12">
+      <c r="I12" s="12">
         <f>transposed!AQ12</f>
         <v>40.299999999999997</v>
       </c>
-      <c r="N12" s="12">
+      <c r="J12" s="12">
         <f>transposed!AY12</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="O12" s="12">
+      <c r="K12" s="12">
         <f>transposed!BA12</f>
         <v>10.4</v>
       </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="12">
         <f>transposed!A13</f>
         <v>2017</v>
       </c>
-      <c r="B13" s="12">
-        <f>transposed!C13</f>
-        <v>1540.7</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="14">
         <f>transposed!D13</f>
         <v>760.6</v>
       </c>
-      <c r="D13" s="14">
+      <c r="C13" s="14">
         <f>transposed!I13</f>
         <v>324.3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="D13" s="14">
         <f>transposed!N13</f>
         <v>431.4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="E13" s="14">
         <f>transposed!U13</f>
         <v>20.6</v>
       </c>
-      <c r="G13" s="14">
+      <c r="F13" s="14">
         <f>transposed!AA13</f>
         <v>3.8</v>
       </c>
-      <c r="H13" s="12">
+      <c r="G13" s="12">
         <f>transposed!AC13</f>
         <v>174.8</v>
       </c>
-      <c r="I13" s="14">
-        <f>transposed!AD13</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J13" s="14">
-        <f>transposed!AG13</f>
-        <v>129.19999999999999</v>
-      </c>
-      <c r="K13" s="14">
-        <f>transposed!AI13</f>
-        <v>12.3</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="H13" s="12">
         <f>transposed!AK13</f>
         <v>43.9</v>
       </c>
-      <c r="M13" s="12">
+      <c r="I13" s="12">
         <f>transposed!AQ13</f>
         <v>41.5</v>
       </c>
-      <c r="N13" s="12">
+      <c r="J13" s="12">
         <f>transposed!AY13</f>
         <v>41.3</v>
       </c>
-      <c r="O13" s="12">
+      <c r="K13" s="12">
         <f>transposed!BA13</f>
         <v>9.6</v>
       </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="12">
         <f>transposed!A14</f>
         <v>2018</v>
       </c>
-      <c r="B14" s="12">
-        <f>transposed!C14</f>
-        <v>1563.9</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="14">
         <f>transposed!D14</f>
         <v>770.3</v>
       </c>
-      <c r="D14" s="14">
+      <c r="C14" s="14">
         <f>transposed!I14</f>
         <v>325.7</v>
       </c>
-      <c r="E14" s="14">
+      <c r="D14" s="14">
         <f>transposed!N14</f>
         <v>442.1</v>
       </c>
-      <c r="F14" s="14">
+      <c r="E14" s="14">
         <f>transposed!U14</f>
         <v>22</v>
       </c>
-      <c r="G14" s="14">
+      <c r="F14" s="14">
         <f>transposed!AA14</f>
         <v>3.8</v>
       </c>
-      <c r="H14" s="12">
+      <c r="G14" s="12">
         <f>transposed!AC14</f>
         <v>175.5</v>
       </c>
-      <c r="I14" s="14">
-        <f>transposed!AD14</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="J14" s="14">
-        <f>transposed!AG14</f>
-        <v>130.80000000000001</v>
-      </c>
-      <c r="K14" s="14">
-        <f>transposed!AI14</f>
-        <v>11.9</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="H14" s="12">
         <f>transposed!AK14</f>
         <v>41.2</v>
       </c>
-      <c r="M14" s="12">
+      <c r="I14" s="12">
         <f>transposed!AQ14</f>
         <v>43.3</v>
       </c>
-      <c r="N14" s="12">
+      <c r="J14" s="12">
         <f>transposed!AY14</f>
         <v>49.9</v>
       </c>
-      <c r="O14" s="12">
+      <c r="K14" s="12">
         <f>transposed!BA14</f>
         <v>9.1999999999999993</v>
       </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="12">
         <f>transposed!A15</f>
         <v>2019</v>
       </c>
-      <c r="B15" s="12">
-        <f>transposed!C15</f>
-        <v>1555.7</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="14">
         <f>transposed!D15</f>
         <v>762.3</v>
       </c>
-      <c r="D15" s="14">
+      <c r="C15" s="14">
         <f>transposed!I15</f>
         <v>323.10000000000002</v>
       </c>
-      <c r="E15" s="14">
+      <c r="D15" s="14">
         <f>transposed!N15</f>
         <v>444.4</v>
       </c>
-      <c r="F15" s="14">
+      <c r="E15" s="14">
         <f>transposed!U15</f>
         <v>22.2</v>
       </c>
-      <c r="G15" s="14">
+      <c r="F15" s="14">
         <f>transposed!AA15</f>
         <v>3.6</v>
       </c>
-      <c r="H15" s="12">
+      <c r="G15" s="12">
         <f>transposed!AC15</f>
         <v>181.1</v>
       </c>
-      <c r="I15" s="14">
-        <f>transposed!AD15</f>
-        <v>33.700000000000003</v>
-      </c>
-      <c r="J15" s="14">
-        <f>transposed!AG15</f>
-        <v>135.4</v>
-      </c>
-      <c r="K15" s="14">
-        <f>transposed!AI15</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="H15" s="12">
         <f>transposed!AK15</f>
         <v>40.4</v>
       </c>
-      <c r="M15" s="12">
+      <c r="I15" s="12">
         <f>transposed!AQ15</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="N15" s="12">
+      <c r="J15" s="12">
         <f>transposed!AY15</f>
         <v>53.7</v>
       </c>
-      <c r="O15" s="12">
+      <c r="K15" s="12">
         <f>transposed!BA15</f>
         <v>8.9</v>
       </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">

--- a/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
+++ b/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32668FAF-8657-044B-8289-6C689EF0CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19543944-36E6-6941-ACF5-172ECF60B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="2980" windowWidth="38000" windowHeight="24580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
   <si>
     <t>Table A-104:  Total U.S. Greenhouse Gas Emissions from Transportation and Mobile Sources (MMT CO2 Eq.)</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Ships and Boats</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -891,7 +894,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>55</v>

--- a/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
+++ b/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19543944-36E6-6941-ACF5-172ECF60B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F181DE6-B000-1942-9BC5-18982D3F338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="8200" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="134">
   <si>
     <t>Table A-104:  Total U.S. Greenhouse Gas Emissions from Transportation and Mobile Sources (MMT CO2 Eq.)</t>
   </si>
@@ -419,13 +419,22 @@
     <t>Medium- and Heavy-Duty Trucks</t>
   </si>
   <si>
+    <t>https://www.epa.gov/ghgemissions/inventory-us-greenhouse-gas-emissions-and-sinks-1990-2019</t>
+  </si>
+  <si>
+    <t>2021 Annex 3 Part A- pg 50</t>
+  </si>
+  <si>
+    <t>To find these data, you can follow the link above and go to "2021 Annex 3 Part A" page A-205 of the pdf. </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Ships and Boats</t>
+  </si>
+  <si>
     <t>Pipelines</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Ships and Boats</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -477,6 +486,19 @@
       <sz val="10"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -495,8 +517,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -516,12 +539,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -861,48 +885,47 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" style="15"/>
+    <col min="2" max="6" width="8.83203125" style="15"/>
     <col min="7" max="11" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="14">
-      <c r="A1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:20" s="17" customFormat="1" ht="14">
+      <c r="A1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>90</v>
       </c>
       <c r="L1" s="16"/>
@@ -1718,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:U93"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1730,20 +1753,35 @@
     <col min="2" max="16" width="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" ht="14">
+    <row r="1" spans="1:16">
+      <c r="A1" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="4" spans="1:16" ht="21">
+      <c r="A4" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:16">
       <c r="P6" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>126</v>
       </c>
@@ -1793,7 +1831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1842,12 +1880,8 @@
       <c r="P8" s="5">
         <v>0.23</v>
       </c>
-      <c r="U8" s="20">
-        <f>O9+O35+O43+O49+O57+O59</f>
-        <v>1880.5000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1896,12 +1930,8 @@
       <c r="P9" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T9" s="20">
-        <f>O10+O15+O20+O27+O33</f>
-        <v>1555.6000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1950,12 +1980,8 @@
       <c r="P10" s="5">
         <v>0.19</v>
       </c>
-      <c r="S10" s="19">
-        <f>SUM(O11:O14)</f>
-        <v>762.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2031,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2081,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:16">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2231,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:16">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -4346,6 +4372,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F385DA9C-8666-49E1-815A-CFA425BE0B52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4354,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB16"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1:BV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>

--- a/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
+++ b/chapters/ch08-Transportation/datasets/CO2_emissions_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F181DE6-B000-1942-9BC5-18982D3F338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F55BDAE-48D4-8A48-B371-6ABDF12ABBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="8200" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="8200" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="3" r:id="rId1"/>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
